--- a/downloaded_files/AERS412_Lecture-35790.xlsx
+++ b/downloaded_files/AERS412_Lecture-35790.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Hesham Ibrahim Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عباس عبدالجليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed Mohamed Ahmed Abass Abdelgelil</x:t>
   </x:si>
   <x:si>
     <x:t>1220009</x:t>
@@ -218,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -518,7 +527,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -528,7 +537,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.900625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -641,7 +650,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6870177431</x:v>
+        <x:v>45923.912753669</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -673,7 +682,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.5127675926</x:v>
+        <x:v>45906.6870177431</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -705,7 +714,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45909.5127675926</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -737,7 +746,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -769,7 +778,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -801,7 +810,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -833,7 +842,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -850,6 +859,38 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS412_Lecture-35790.xlsx
+++ b/downloaded_files/AERS412_Lecture-35790.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Khalid Mohamed Shafiq Abd-ElmaQsoyd ElbagorYy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف عبدالمجيد محمد بيومى حسين حسبو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif abdelmagid mohamed bayomi hussein hassabo</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220127</x:t>
   </x:si>
   <x:si>
@@ -76,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جمال الدين حسين عرابى ابو سنه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Gamal El-Din Hussein orabi Abo Sena</x:t>
   </x:si>
   <x:si>
     <x:t>1210035</x:t>
@@ -227,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -535,7 +553,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.900625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -714,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.5127675926</x:v>
+        <x:v>45928.4182256944</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -746,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45909.5127675926</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -778,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -810,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45928.4182256944</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -842,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -874,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -891,6 +909,70 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45906.6678039005</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS412_Lecture-35790.xlsx
+++ b/downloaded_files/AERS412_Lecture-35790.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Abdelmoneim Akl Afifi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4200381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حلمي محمد فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar helmi mohamed farag</x:t>
   </x:si>
   <x:si>
     <x:t>4230157</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -796,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45931.4358632755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.4182256944</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45928.4182256944</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
